--- a/dataforfinalproject/RawDataFiles/Codebooks/Codebook_allyears.xlsx
+++ b/dataforfinalproject/RawDataFiles/Codebooks/Codebook_allyears.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMU DS Bootcamp\Projects\Project3-ML_ResPoweConsumption\Project3final\dataforfinalproject\RawDataFiles\Codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A597BA-CEEC-4194-AAF2-A76EA7360603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F5220B-03A2-450D-A320-43CF8A528D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3" xr2:uid="{D5B27A2C-9AC0-4372-9500-4C3681F36C9F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="4" xr2:uid="{D5B27A2C-9AC0-4372-9500-4C3681F36C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="1997" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15165" uniqueCount="6271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15166" uniqueCount="6272">
   <si>
     <t>Column_name</t>
   </si>
@@ -20219,6 +20219,9 @@
   </si>
   <si>
     <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -53225,14 +53228,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8288F514-4EDA-43BF-B0BC-9F0DDD252265}">
-  <dimension ref="A1:D942"/>
+  <dimension ref="A1:F942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A603" workbookViewId="0">
-      <selection activeCell="B604" sqref="B604"/>
+    <sheetView topLeftCell="A603" workbookViewId="0">
+      <selection activeCell="F604" sqref="F604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
     <col min="2" max="2" width="27.08984375" customWidth="1"/>
     <col min="4" max="4" width="24.08984375" customWidth="1"/>
   </cols>
@@ -61505,7 +61509,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A593" s="31" t="s">
         <v>2494</v>
       </c>
@@ -61519,7 +61523,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A594" s="31" t="s">
         <v>2495</v>
       </c>
@@ -61533,7 +61537,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A595" s="31" t="s">
         <v>2496</v>
       </c>
@@ -61547,7 +61551,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A596" s="31" t="s">
         <v>2497</v>
       </c>
@@ -61561,7 +61565,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A597" s="31" t="s">
         <v>2499</v>
       </c>
@@ -61575,7 +61579,7 @@
         <v>4653</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A598" s="31" t="s">
         <v>2950</v>
       </c>
@@ -61589,7 +61593,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A599" s="31" t="s">
         <v>2951</v>
       </c>
@@ -61603,7 +61607,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A600" s="31" t="s">
         <v>2953</v>
       </c>
@@ -61617,7 +61621,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A601" s="31" t="s">
         <v>2954</v>
       </c>
@@ -61631,7 +61635,7 @@
         <v>4663</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A602" s="31" t="s">
         <v>2956</v>
       </c>
@@ -61645,7 +61649,7 @@
         <v>4664</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A603" s="31" t="s">
         <v>2957</v>
       </c>
@@ -61659,7 +61663,7 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A604" s="31" t="s">
         <v>2959</v>
       </c>
@@ -61672,8 +61676,11 @@
       <c r="D604" s="38" t="s">
         <v>4669</v>
       </c>
-    </row>
-    <row r="605" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="F604" s="62" t="s">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A605" s="31" t="s">
         <v>4670</v>
       </c>
@@ -61687,7 +61694,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A606" s="31" t="s">
         <v>2961</v>
       </c>
@@ -61701,7 +61708,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A607" s="31" t="s">
         <v>4676</v>
       </c>
@@ -61715,7 +61722,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A608" s="31" t="s">
         <v>4678</v>
       </c>
@@ -61729,7 +61736,7 @@
         <v>4681</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A609" s="31" t="s">
         <v>4682</v>
       </c>
@@ -61743,7 +61750,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A610" s="31" t="s">
         <v>2963</v>
       </c>
@@ -61757,7 +61764,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A611" s="31" t="s">
         <v>2964</v>
       </c>
@@ -61771,7 +61778,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A612" s="31" t="s">
         <v>2965</v>
       </c>
@@ -61785,7 +61792,7 @@
         <v>4688</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A613" s="31" t="s">
         <v>2966</v>
       </c>
@@ -61799,7 +61806,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A614" s="31" t="s">
         <v>2968</v>
       </c>
@@ -61813,7 +61820,7 @@
         <v>4692</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A615" s="31" t="s">
         <v>4693</v>
       </c>
@@ -61827,7 +61834,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A616" s="31" t="s">
         <v>4695</v>
       </c>
@@ -61841,7 +61848,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A617" s="31" t="s">
         <v>2970</v>
       </c>
@@ -61855,7 +61862,7 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A618" s="31" t="s">
         <v>4699</v>
       </c>
@@ -61869,7 +61876,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A619" s="31" t="s">
         <v>4701</v>
       </c>
@@ -61883,7 +61890,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A620" s="31" t="s">
         <v>4704</v>
       </c>
@@ -61897,7 +61904,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A621" s="31" t="s">
         <v>4706</v>
       </c>
@@ -61911,7 +61918,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A622" s="31" t="s">
         <v>2971</v>
       </c>
@@ -61925,7 +61932,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A623" s="31" t="s">
         <v>4710</v>
       </c>
@@ -61939,7 +61946,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A624" s="31" t="s">
         <v>4712</v>
       </c>
@@ -61953,7 +61960,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A625" s="31" t="s">
         <v>4714</v>
       </c>
@@ -61967,7 +61974,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A626" s="31" t="s">
         <v>4716</v>
       </c>
@@ -61981,7 +61988,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A627" s="31" t="s">
         <v>4718</v>
       </c>
@@ -61995,7 +62002,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A628" s="31" t="s">
         <v>4720</v>
       </c>
@@ -62009,7 +62016,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A629" s="31" t="s">
         <v>4722</v>
       </c>
@@ -62023,7 +62030,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A630" s="31" t="s">
         <v>4726</v>
       </c>
@@ -62037,7 +62044,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A631" s="31" t="s">
         <v>3043</v>
       </c>
@@ -62051,7 +62058,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A632" s="31" t="s">
         <v>3045</v>
       </c>
@@ -62065,7 +62072,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A633" s="31" t="s">
         <v>2637</v>
       </c>
@@ -62079,7 +62086,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A634" s="31" t="s">
         <v>2638</v>
       </c>
@@ -62093,7 +62100,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A635" s="31" t="s">
         <v>2640</v>
       </c>
@@ -62107,7 +62114,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A636" s="31" t="s">
         <v>2641</v>
       </c>
@@ -62121,7 +62128,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A637" s="31" t="s">
         <v>2642</v>
       </c>
@@ -62135,7 +62142,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A638" s="31" t="s">
         <v>3020</v>
       </c>
@@ -62149,7 +62156,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A639" s="31" t="s">
         <v>3023</v>
       </c>
@@ -62163,7 +62170,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A640" s="31" t="s">
         <v>3026</v>
       </c>
@@ -62177,7 +62184,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A641" s="31" t="s">
         <v>3029</v>
       </c>
@@ -62191,7 +62198,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A642" s="31" t="s">
         <v>3031</v>
       </c>
@@ -62205,7 +62212,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A643" s="31" t="s">
         <v>3033</v>
       </c>
@@ -62219,7 +62226,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A644" s="31" t="s">
         <v>3034</v>
       </c>
@@ -62233,7 +62240,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A645" s="31" t="s">
         <v>3035</v>
       </c>
@@ -62247,7 +62254,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A646" s="31" t="s">
         <v>3036</v>
       </c>
@@ -62261,7 +62268,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A647" s="31" t="s">
         <v>3038</v>
       </c>
@@ -62275,7 +62282,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A648" s="31" t="s">
         <v>3040</v>
       </c>
@@ -62289,7 +62296,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A649" s="31" t="s">
         <v>4746</v>
       </c>
@@ -62303,7 +62310,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A650" s="31" t="s">
         <v>4748</v>
       </c>
@@ -62317,7 +62324,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A651" s="31" t="s">
         <v>3041</v>
       </c>
@@ -62331,7 +62338,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A652" s="31" t="s">
         <v>4751</v>
       </c>
@@ -62345,7 +62352,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A653" s="31" t="s">
         <v>4753</v>
       </c>
@@ -62359,7 +62366,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A654" s="31" t="s">
         <v>4755</v>
       </c>
@@ -62373,7 +62380,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A655" s="31" t="s">
         <v>4757</v>
       </c>
@@ -62387,7 +62394,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A656" s="31" t="s">
         <v>3051</v>
       </c>
@@ -62401,7 +62408,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A657" s="31" t="s">
         <v>3052</v>
       </c>
@@ -62415,7 +62422,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A658" s="31" t="s">
         <v>3053</v>
       </c>
@@ -62429,7 +62436,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A659" s="31" t="s">
         <v>3054</v>
       </c>
@@ -62443,7 +62450,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A660" s="31" t="s">
         <v>3055</v>
       </c>
@@ -62457,7 +62464,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A661" s="31" t="s">
         <v>3056</v>
       </c>
@@ -62471,7 +62478,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A662" s="31" t="s">
         <v>3057</v>
       </c>
@@ -62485,7 +62492,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A663" s="31" t="s">
         <v>3058</v>
       </c>
@@ -62499,7 +62506,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A664" s="31" t="s">
         <v>3059</v>
       </c>
@@ -62513,7 +62520,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A665" s="31" t="s">
         <v>2779</v>
       </c>
@@ -62527,7 +62534,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A666" s="31" t="s">
         <v>3062</v>
       </c>
@@ -62541,7 +62548,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A667" s="31" t="s">
         <v>3061</v>
       </c>
@@ -62555,7 +62562,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A668" s="31" t="s">
         <v>3060</v>
       </c>
@@ -62569,7 +62576,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A669" s="31" t="s">
         <v>3063</v>
       </c>
@@ -62583,7 +62590,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A670" s="31" t="s">
         <v>3064</v>
       </c>
@@ -62597,7 +62604,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A671" s="31" t="s">
         <v>2780</v>
       </c>
@@ -62611,7 +62618,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A672" s="31" t="s">
         <v>3065</v>
       </c>
@@ -62625,7 +62632,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A673" s="31" t="s">
         <v>3066</v>
       </c>
@@ -62639,7 +62646,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A674" s="31" t="s">
         <v>3067</v>
       </c>
@@ -62653,7 +62660,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A675" s="31" t="s">
         <v>3068</v>
       </c>
@@ -62667,7 +62674,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A676" s="31" t="s">
         <v>2781</v>
       </c>
@@ -62681,7 +62688,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A677" s="31" t="s">
         <v>3069</v>
       </c>
@@ -62695,7 +62702,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A678" s="31" t="s">
         <v>3070</v>
       </c>
@@ -62709,7 +62716,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A679" s="31" t="s">
         <v>3072</v>
       </c>
@@ -62723,7 +62730,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A680" s="31" t="s">
         <v>3073</v>
       </c>
@@ -62737,7 +62744,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A681" s="31" t="s">
         <v>2782</v>
       </c>
@@ -62751,7 +62758,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A682" s="31" t="s">
         <v>3074</v>
       </c>
@@ -62765,7 +62772,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A683" s="31" t="s">
         <v>3075</v>
       </c>
@@ -62779,7 +62786,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A684" s="31" t="s">
         <v>3076</v>
       </c>
@@ -62793,7 +62800,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A685" s="31" t="s">
         <v>2783</v>
       </c>
@@ -62807,7 +62814,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A686" s="31" t="s">
         <v>3077</v>
       </c>
@@ -62821,7 +62828,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A687" s="31" t="s">
         <v>3078</v>
       </c>
@@ -62835,7 +62842,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A688" s="31" t="s">
         <v>3079</v>
       </c>
@@ -62849,7 +62856,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A689" s="31" t="s">
         <v>2784</v>
       </c>
@@ -62863,7 +62870,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A690" s="31" t="s">
         <v>3080</v>
       </c>
@@ -62877,7 +62884,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A691" s="31" t="s">
         <v>4794</v>
       </c>
@@ -62891,7 +62898,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A692" s="31" t="s">
         <v>3082</v>
       </c>
@@ -62905,7 +62912,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A693" s="31" t="s">
         <v>2785</v>
       </c>
@@ -62919,7 +62926,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A694" s="31" t="s">
         <v>3083</v>
       </c>
@@ -62933,7 +62940,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A695" s="31" t="s">
         <v>3085</v>
       </c>
@@ -62947,7 +62954,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A696" s="31" t="s">
         <v>4800</v>
       </c>
@@ -62961,7 +62968,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A697" s="31" t="s">
         <v>2786</v>
       </c>
@@ -62975,7 +62982,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A698" s="31" t="s">
         <v>4803</v>
       </c>
@@ -62989,7 +62996,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A699" s="31" t="s">
         <v>3086</v>
       </c>
@@ -63003,7 +63010,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A700" s="31" t="s">
         <v>4806</v>
       </c>
@@ -63017,7 +63024,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A701" s="31" t="s">
         <v>4808</v>
       </c>
@@ -63031,7 +63038,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A702" s="31" t="s">
         <v>3089</v>
       </c>
@@ -63045,7 +63052,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A703" s="31" t="s">
         <v>3090</v>
       </c>
@@ -63059,7 +63066,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A704" s="31" t="s">
         <v>3091</v>
       </c>
@@ -63073,7 +63080,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A705" s="31" t="s">
         <v>3092</v>
       </c>
@@ -63087,7 +63094,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A706" s="31" t="s">
         <v>3093</v>
       </c>
@@ -63101,7 +63108,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A707" s="31" t="s">
         <v>4816</v>
       </c>
@@ -63115,7 +63122,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A708" s="31" t="s">
         <v>3094</v>
       </c>
@@ -63129,7 +63136,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A709" s="31" t="s">
         <v>3095</v>
       </c>
@@ -63143,7 +63150,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A710" s="31" t="s">
         <v>3096</v>
       </c>
@@ -63157,7 +63164,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A711" s="31" t="s">
         <v>3097</v>
       </c>
@@ -63171,7 +63178,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A712" s="31" t="s">
         <v>4823</v>
       </c>
@@ -63185,7 +63192,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A713" s="31" t="s">
         <v>3098</v>
       </c>
@@ -63199,7 +63206,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A714" s="31" t="s">
         <v>4825</v>
       </c>
@@ -63213,7 +63220,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A715" s="31" t="s">
         <v>3099</v>
       </c>
@@ -63227,7 +63234,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A716" s="31" t="s">
         <v>4828</v>
       </c>
@@ -63241,7 +63248,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A717" s="31" t="s">
         <v>3106</v>
       </c>
@@ -63255,7 +63262,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A718" s="31" t="s">
         <v>3115</v>
       </c>
@@ -63269,7 +63276,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A719" s="31" t="s">
         <v>3118</v>
       </c>
@@ -63283,7 +63290,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A720" s="31" t="s">
         <v>3119</v>
       </c>
@@ -63297,7 +63304,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A721" s="31" t="s">
         <v>3120</v>
       </c>
@@ -63311,7 +63318,7 @@
         <v>4838</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A722" s="31" t="s">
         <v>3123</v>
       </c>
@@ -63325,7 +63332,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A723" s="31" t="s">
         <v>3124</v>
       </c>
@@ -63339,7 +63346,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A724" s="31" t="s">
         <v>3125</v>
       </c>
@@ -63353,7 +63360,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A725" s="31" t="s">
         <v>3081</v>
       </c>
@@ -63367,7 +63374,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A726" s="31" t="s">
         <v>3126</v>
       </c>
@@ -63381,7 +63388,7 @@
         <v>4844</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A727" s="31" t="s">
         <v>4845</v>
       </c>
@@ -63395,7 +63402,7 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A728" s="31" t="s">
         <v>4849</v>
       </c>
@@ -63409,7 +63416,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A729" s="31" t="s">
         <v>4851</v>
       </c>
@@ -63423,7 +63430,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A730" s="31" t="s">
         <v>3210</v>
       </c>
@@ -63437,7 +63444,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="731" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A731" s="31" t="s">
         <v>3212</v>
       </c>
@@ -63451,7 +63458,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A732" s="31" t="s">
         <v>3214</v>
       </c>
@@ -63465,7 +63472,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A733" s="31" t="s">
         <v>3216</v>
       </c>
@@ -63479,7 +63486,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A734" s="31" t="s">
         <v>3218</v>
       </c>
@@ -63493,7 +63500,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A735" s="31" t="s">
         <v>3248</v>
       </c>
@@ -63507,7 +63514,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A736" s="31" t="s">
         <v>3219</v>
       </c>
@@ -63521,7 +63528,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A737" s="31" t="s">
         <v>3221</v>
       </c>
@@ -63535,7 +63542,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A738" s="31" t="s">
         <v>3223</v>
       </c>
@@ -63549,7 +63556,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A739" s="31" t="s">
         <v>3225</v>
       </c>
@@ -63563,7 +63570,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A740" s="31" t="s">
         <v>3250</v>
       </c>
@@ -63577,7 +63584,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A741" s="31" t="s">
         <v>3244</v>
       </c>
@@ -63591,7 +63598,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A742" s="31" t="s">
         <v>3252</v>
       </c>
@@ -63605,7 +63612,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A743" s="31" t="s">
         <v>3246</v>
       </c>
@@ -63619,7 +63626,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A744" s="31" t="s">
         <v>3254</v>
       </c>
@@ -63633,7 +63640,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A745" s="31" t="s">
         <v>3270</v>
       </c>
@@ -63647,7 +63654,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A746" s="31" t="s">
         <v>3274</v>
       </c>
@@ -63661,7 +63668,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A747" s="31" t="s">
         <v>3276</v>
       </c>
@@ -63675,7 +63682,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A748" s="31" t="s">
         <v>3278</v>
       </c>
@@ -63689,7 +63696,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A749" s="31" t="s">
         <v>3284</v>
       </c>
@@ -63703,7 +63710,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A750" s="31" t="s">
         <v>3286</v>
       </c>
@@ -63717,7 +63724,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A751" s="31" t="s">
         <v>3288</v>
       </c>
@@ -63731,7 +63738,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A752" s="31" t="s">
         <v>3194</v>
       </c>
@@ -63745,7 +63752,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A753" s="31" t="s">
         <v>3290</v>
       </c>
@@ -63759,7 +63766,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A754" s="31" t="s">
         <v>4877</v>
       </c>
@@ -63773,7 +63780,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A755" s="31" t="s">
         <v>3228</v>
       </c>
@@ -63787,7 +63794,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A756" s="31" t="s">
         <v>3327</v>
       </c>
@@ -63801,7 +63808,7 @@
         <v>4882</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A757" s="31" t="s">
         <v>3329</v>
       </c>
@@ -63815,7 +63822,7 @@
         <v>4885</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A758" s="31" t="s">
         <v>3330</v>
       </c>
@@ -63829,7 +63836,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A759" s="31" t="s">
         <v>3331</v>
       </c>
@@ -63843,7 +63850,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A760" s="31" t="s">
         <v>4888</v>
       </c>
@@ -63857,7 +63864,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="377" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A761" s="31" t="s">
         <v>4892</v>
       </c>
@@ -63871,7 +63878,7 @@
         <v>4895</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A762" s="31" t="s">
         <v>3338</v>
       </c>
@@ -63885,7 +63892,7 @@
         <v>4896</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A763" s="31" t="s">
         <v>3328</v>
       </c>
@@ -63899,7 +63906,7 @@
         <v>4897</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A764" s="31" t="s">
         <v>4899</v>
       </c>
@@ -63913,7 +63920,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A765" s="31" t="s">
         <v>4903</v>
       </c>
@@ -63927,7 +63934,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A766" s="31" t="s">
         <v>4905</v>
       </c>
@@ -63941,7 +63948,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A767" s="31" t="s">
         <v>4907</v>
       </c>
@@ -63955,7 +63962,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A768" s="31" t="s">
         <v>4909</v>
       </c>
@@ -63969,7 +63976,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A769" s="31" t="s">
         <v>4911</v>
       </c>
@@ -63983,7 +63990,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A770" s="31" t="s">
         <v>4913</v>
       </c>
@@ -63997,7 +64004,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A771" s="31" t="s">
         <v>4915</v>
       </c>
@@ -64011,7 +64018,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A772" s="31" t="s">
         <v>4917</v>
       </c>
@@ -64025,7 +64032,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A773" s="31" t="s">
         <v>4919</v>
       </c>
@@ -64039,7 +64046,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A774" s="31" t="s">
         <v>4921</v>
       </c>
@@ -64053,7 +64060,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A775" s="31" t="s">
         <v>4923</v>
       </c>
@@ -64067,7 +64074,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A776" s="31" t="s">
         <v>4925</v>
       </c>
@@ -64081,7 +64088,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A777" s="31" t="s">
         <v>3323</v>
       </c>
@@ -64095,7 +64102,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A778" s="31" t="s">
         <v>3325</v>
       </c>
@@ -64109,7 +64116,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A779" s="31" t="s">
         <v>4929</v>
       </c>
@@ -64123,7 +64130,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A780" s="31" t="s">
         <v>2608</v>
       </c>
@@ -64137,7 +64144,7 @@
         <v>4933</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A781" s="31" t="s">
         <v>3324</v>
       </c>
@@ -64151,7 +64158,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A782" s="31" t="s">
         <v>3355</v>
       </c>
@@ -64165,7 +64172,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A783" s="31" t="s">
         <v>3356</v>
       </c>
@@ -64179,7 +64186,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A784" s="31" t="s">
         <v>4937</v>
       </c>
@@ -64193,7 +64200,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A785" s="31" t="s">
         <v>3358</v>
       </c>
@@ -64207,7 +64214,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="786" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A786" s="31" t="s">
         <v>4940</v>
       </c>
@@ -64221,7 +64228,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="787" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A787" s="31" t="s">
         <v>4942</v>
       </c>
@@ -64235,7 +64242,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="788" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A788" s="31" t="s">
         <v>3360</v>
       </c>
@@ -64249,7 +64256,7 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="789" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A789" s="31" t="s">
         <v>4947</v>
       </c>
@@ -64263,7 +64270,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="790" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A790" s="31" t="s">
         <v>4949</v>
       </c>
@@ -64277,7 +64284,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="791" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A791" s="31" t="s">
         <v>49</v>
       </c>
@@ -64291,7 +64298,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="792" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A792" s="31" t="s">
         <v>2217</v>
       </c>
@@ -64305,7 +64312,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="793" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A793" s="31" t="s">
         <v>4953</v>
       </c>
@@ -64319,7 +64326,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="794" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A794" s="31" t="s">
         <v>3371</v>
       </c>
@@ -64333,7 +64340,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="795" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A795" s="31" t="s">
         <v>3372</v>
       </c>
@@ -64347,7 +64354,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="796" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A796" s="31" t="s">
         <v>3373</v>
       </c>
@@ -64361,7 +64368,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="797" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A797" s="31" t="s">
         <v>3374</v>
       </c>
@@ -64375,7 +64382,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="798" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A798" s="31" t="s">
         <v>3375</v>
       </c>
@@ -64389,7 +64396,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A799" s="31" t="s">
         <v>4960</v>
       </c>
@@ -64403,7 +64410,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A800" s="31" t="s">
         <v>4962</v>
       </c>
@@ -64417,7 +64424,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A801" s="31" t="s">
         <v>3381</v>
       </c>
@@ -64431,7 +64438,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A802" s="31" t="s">
         <v>4965</v>
       </c>
@@ -64445,7 +64452,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A803" s="31" t="s">
         <v>4967</v>
       </c>
@@ -64459,7 +64466,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A804" s="31" t="s">
         <v>4969</v>
       </c>
@@ -64473,7 +64480,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A805" s="31" t="s">
         <v>4971</v>
       </c>
@@ -64487,7 +64494,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A806" s="31" t="s">
         <v>4973</v>
       </c>
@@ -64501,7 +64508,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A807" s="31" t="s">
         <v>4975</v>
       </c>
@@ -64515,7 +64522,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A808" s="31" t="s">
         <v>4977</v>
       </c>
@@ -64529,7 +64536,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A809" s="31" t="s">
         <v>4979</v>
       </c>
@@ -64543,7 +64550,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A810" s="31" t="s">
         <v>4981</v>
       </c>
@@ -64557,7 +64564,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A811" s="31" t="s">
         <v>4983</v>
       </c>
@@ -64571,7 +64578,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A812" s="31" t="s">
         <v>4985</v>
       </c>
@@ -64585,7 +64592,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A813" s="31" t="s">
         <v>4987</v>
       </c>
@@ -64599,7 +64606,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A814" s="31" t="s">
         <v>4989</v>
       </c>
@@ -64613,7 +64620,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A815" s="31" t="s">
         <v>3413</v>
       </c>
@@ -64627,7 +64634,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A816" s="31" t="s">
         <v>3368</v>
       </c>
@@ -64641,7 +64648,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A817" s="31" t="s">
         <v>4993</v>
       </c>
@@ -64655,7 +64662,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A818" s="31" t="s">
         <v>2753</v>
       </c>
@@ -64669,7 +64676,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A819" s="31" t="s">
         <v>3367</v>
       </c>
@@ -64683,7 +64690,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A820" s="31" t="s">
         <v>3408</v>
       </c>
@@ -64697,7 +64704,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A821" s="31" t="s">
         <v>3409</v>
       </c>
@@ -64711,7 +64718,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A822" s="31" t="s">
         <v>4999</v>
       </c>
@@ -64725,7 +64732,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A823" s="31" t="s">
         <v>3410</v>
       </c>
@@ -64739,7 +64746,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A824" s="31" t="s">
         <v>5002</v>
       </c>
@@ -64753,7 +64760,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A825" s="31" t="s">
         <v>5004</v>
       </c>
@@ -64767,7 +64774,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A826" s="31" t="s">
         <v>3412</v>
       </c>
@@ -64781,7 +64788,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A827" s="31" t="s">
         <v>99</v>
       </c>
@@ -64795,7 +64802,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A828" s="31" t="s">
         <v>5008</v>
       </c>
@@ -64809,7 +64816,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A829" s="31" t="s">
         <v>5010</v>
       </c>
@@ -64823,7 +64830,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A830" s="31" t="s">
         <v>3488</v>
       </c>
@@ -64835,7 +64842,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A831" s="31" t="s">
         <v>5014</v>
       </c>
@@ -64847,7 +64854,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A832" s="31" t="s">
         <v>3497</v>
       </c>
@@ -64859,7 +64866,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A833" s="31" t="s">
         <v>3498</v>
       </c>
@@ -64871,7 +64878,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A834" s="31" t="s">
         <v>3507</v>
       </c>
@@ -64883,7 +64890,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A835" s="31" t="s">
         <v>3509</v>
       </c>
@@ -64895,7 +64902,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A836" s="34" t="s">
         <v>5018</v>
       </c>
@@ -64909,7 +64916,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A837" s="34" t="s">
         <v>5020</v>
       </c>
@@ -64923,7 +64930,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A838" s="34" t="s">
         <v>5022</v>
       </c>
@@ -64937,7 +64944,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A839" s="34" t="s">
         <v>5024</v>
       </c>
@@ -64951,7 +64958,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A840" s="34" t="s">
         <v>5026</v>
       </c>
@@ -64965,7 +64972,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A841" s="34" t="s">
         <v>5028</v>
       </c>
@@ -64979,7 +64986,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A842" s="35" t="s">
         <v>3641</v>
       </c>
@@ -64991,7 +64998,7 @@
         <v>5031</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A843" s="35" t="s">
         <v>5032</v>
       </c>
@@ -65003,7 +65010,7 @@
         <v>5031</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A844" s="35" t="s">
         <v>5034</v>
       </c>
@@ -65015,7 +65022,7 @@
         <v>5031</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A845" s="35" t="s">
         <v>5036</v>
       </c>
@@ -65027,7 +65034,7 @@
         <v>5031</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A846" s="35" t="s">
         <v>5038</v>
       </c>
@@ -65039,7 +65046,7 @@
         <v>5031</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A847" s="35" t="s">
         <v>5040</v>
       </c>
@@ -65051,7 +65058,7 @@
         <v>5031</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A848" s="35" t="s">
         <v>3642</v>
       </c>
@@ -65063,7 +65070,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A849" s="35" t="s">
         <v>3663</v>
       </c>
@@ -65075,7 +65082,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A850" s="35" t="s">
         <v>3659</v>
       </c>
@@ -65087,7 +65094,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="851" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A851" s="35" t="s">
         <v>3661</v>
       </c>
@@ -65099,7 +65106,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="852" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A852" s="35" t="s">
         <v>3657</v>
       </c>
@@ -65111,7 +65118,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="853" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A853" s="35" t="s">
         <v>5048</v>
       </c>
@@ -65123,7 +65130,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="854" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A854" s="35" t="s">
         <v>3687</v>
       </c>
@@ -65135,7 +65142,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="855" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A855" s="35" t="s">
         <v>3698</v>
       </c>
@@ -65147,7 +65154,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="856" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A856" s="35" t="s">
         <v>3696</v>
       </c>
@@ -65159,7 +65166,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="857" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A857" s="35" t="s">
         <v>3697</v>
       </c>
@@ -65171,7 +65178,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="858" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A858" s="35" t="s">
         <v>3695</v>
       </c>
@@ -65183,7 +65190,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="859" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A859" s="37" t="s">
         <v>5056</v>
       </c>
@@ -65195,7 +65202,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="860" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A860" s="37" t="s">
         <v>3643</v>
       </c>
@@ -65207,7 +65214,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="861" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A861" s="32" t="s">
         <v>5060</v>
       </c>
@@ -65219,7 +65226,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="862" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A862" s="32" t="s">
         <v>5062</v>
       </c>
@@ -65231,7 +65238,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="863" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A863" s="32" t="s">
         <v>5064</v>
       </c>
@@ -65243,7 +65250,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="864" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A864" s="32" t="s">
         <v>3644</v>
       </c>
@@ -65255,7 +65262,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="865" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A865" s="32" t="s">
         <v>3671</v>
       </c>
@@ -65267,7 +65274,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="866" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A866" s="32" t="s">
         <v>3669</v>
       </c>
@@ -65279,7 +65286,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A867" s="32" t="s">
         <v>5069</v>
       </c>
@@ -65291,7 +65298,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="868" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A868" s="32" t="s">
         <v>3688</v>
       </c>
@@ -65303,7 +65310,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="869" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A869" s="32" t="s">
         <v>3702</v>
       </c>
@@ -65315,7 +65322,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A870" s="32" t="s">
         <v>3701</v>
       </c>
@@ -65327,7 +65334,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A871" s="32" t="s">
         <v>5074</v>
       </c>
@@ -65339,7 +65346,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A872" s="32" t="s">
         <v>3647</v>
       </c>
@@ -65351,7 +65358,7 @@
         <v>5077</v>
       </c>
     </row>
-    <row r="873" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A873" s="32" t="s">
         <v>5078</v>
       </c>
@@ -65363,7 +65370,7 @@
         <v>5077</v>
       </c>
     </row>
-    <row r="874" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A874" s="32" t="s">
         <v>5080</v>
       </c>
@@ -65375,7 +65382,7 @@
         <v>5077</v>
       </c>
     </row>
-    <row r="875" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A875" s="32" t="s">
         <v>5082</v>
       </c>
@@ -65387,7 +65394,7 @@
         <v>5077</v>
       </c>
     </row>
-    <row r="876" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A876" s="32" t="s">
         <v>3648</v>
       </c>
@@ -65399,7 +65406,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="877" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A877" s="32" t="s">
         <v>3681</v>
       </c>
@@ -65411,7 +65418,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="878" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A878" s="32" t="s">
         <v>3683</v>
       </c>
@@ -65423,7 +65430,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="879" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A879" s="32" t="s">
         <v>5087</v>
       </c>
@@ -65435,7 +65442,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A880" s="32" t="s">
         <v>3690</v>
       </c>
@@ -65447,7 +65454,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="881" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A881" s="32" t="s">
         <v>3707</v>
       </c>
@@ -65459,7 +65466,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="882" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A882" s="32" t="s">
         <v>3708</v>
       </c>
@@ -65471,7 +65478,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="883" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A883" s="32" t="s">
         <v>5092</v>
       </c>
@@ -65483,7 +65490,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="884" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A884" s="32" t="s">
         <v>3645</v>
       </c>
@@ -65495,7 +65502,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="885" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A885" s="32" t="s">
         <v>5096</v>
       </c>
@@ -65507,7 +65514,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="886" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A886" s="32" t="s">
         <v>5098</v>
       </c>
@@ -65519,7 +65526,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="887" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A887" s="32" t="s">
         <v>5100</v>
       </c>
@@ -65531,7 +65538,7 @@
         <v>5095</v>
       </c>
     </row>
-    <row r="888" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A888" s="32" t="s">
         <v>3646</v>
       </c>
@@ -65543,7 +65550,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="889" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A889" s="32" t="s">
         <v>3675</v>
       </c>
@@ -65555,7 +65562,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="890" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A890" s="32" t="s">
         <v>3677</v>
       </c>
@@ -65567,7 +65574,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="891" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A891" s="32" t="s">
         <v>5105</v>
       </c>
@@ -65579,7 +65586,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="892" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A892" s="32" t="s">
         <v>3689</v>
       </c>
@@ -65591,7 +65598,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="893" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A893" s="32" t="s">
         <v>3704</v>
       </c>
@@ -65603,7 +65610,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="894" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A894" s="32" t="s">
         <v>3705</v>
       </c>
@@ -65615,7 +65622,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="895" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A895" s="32" t="s">
         <v>5110</v>
       </c>
@@ -65627,7 +65634,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="896" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A896" s="32" t="s">
         <v>5112</v>
       </c>
@@ -65639,7 +65646,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="897" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A897" s="32" t="s">
         <v>5115</v>
       </c>
@@ -65651,7 +65658,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="898" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A898" s="32" t="s">
         <v>5117</v>
       </c>
@@ -65663,7 +65670,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="899" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A899" s="32" t="s">
         <v>5119</v>
       </c>
@@ -65675,7 +65682,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="900" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A900" s="32" t="s">
         <v>3650</v>
       </c>
@@ -65687,7 +65694,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="901" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A901" s="32" t="s">
         <v>5122</v>
       </c>
@@ -65699,7 +65706,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="902" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A902" s="32" t="s">
         <v>5124</v>
       </c>
@@ -65711,7 +65718,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="903" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A903" s="32" t="s">
         <v>5126</v>
       </c>
@@ -65723,7 +65730,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="904" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A904" s="32" t="s">
         <v>5128</v>
       </c>
@@ -65735,7 +65742,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="905" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A905" s="32" t="s">
         <v>5130</v>
       </c>
@@ -65747,7 +65754,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="906" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A906" s="32" t="s">
         <v>5132</v>
       </c>
@@ -65759,7 +65766,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="907" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A907" s="32" t="s">
         <v>5134</v>
       </c>
@@ -65771,7 +65778,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="908" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A908" s="32" t="s">
         <v>3685</v>
       </c>
@@ -65783,7 +65790,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="909" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A909" s="32" t="s">
         <v>5137</v>
       </c>
@@ -65795,7 +65802,7 @@
         <v>5139</v>
       </c>
     </row>
-    <row r="910" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A910" s="32" t="s">
         <v>5140</v>
       </c>
@@ -65807,7 +65814,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="911" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A911" s="32" t="s">
         <v>5142</v>
       </c>
@@ -65819,7 +65826,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="912" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A912" s="32" t="s">
         <v>5144</v>
       </c>
@@ -65831,7 +65838,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="913" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A913" s="32" t="s">
         <v>5146</v>
       </c>
@@ -65843,7 +65850,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="914" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A914" s="32" t="s">
         <v>5148</v>
       </c>
@@ -65855,7 +65862,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="915" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A915" s="32" t="s">
         <v>5150</v>
       </c>
@@ -65867,7 +65874,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="916" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A916" s="32" t="s">
         <v>5152</v>
       </c>
@@ -65879,7 +65886,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="917" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A917" s="32" t="s">
         <v>5154</v>
       </c>
@@ -65891,7 +65898,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="918" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A918" s="32" t="s">
         <v>5156</v>
       </c>
@@ -65903,7 +65910,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="919" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A919" s="32" t="s">
         <v>5158</v>
       </c>
@@ -65915,7 +65922,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="920" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A920" s="32" t="s">
         <v>5160</v>
       </c>
@@ -65927,7 +65934,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="921" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A921" s="32" t="s">
         <v>5162</v>
       </c>
@@ -65939,7 +65946,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="922" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A922" s="32" t="s">
         <v>3609</v>
       </c>
@@ -65953,7 +65960,7 @@
         <v>5166</v>
       </c>
     </row>
-    <row r="923" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A923" s="32" t="s">
         <v>3610</v>
       </c>
@@ -65967,7 +65974,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="924" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A924" s="32" t="s">
         <v>5169</v>
       </c>
@@ -65981,7 +65988,7 @@
         <v>5172</v>
       </c>
     </row>
-    <row r="925" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A925" s="32" t="s">
         <v>3616</v>
       </c>
@@ -65995,7 +66002,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="926" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A926" s="32" t="s">
         <v>3617</v>
       </c>
@@ -66009,7 +66016,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="927" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A927" s="32" t="s">
         <v>5178</v>
       </c>
@@ -66023,7 +66030,7 @@
         <v>5181</v>
       </c>
     </row>
-    <row r="928" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A928" s="32" t="s">
         <v>3630</v>
       </c>
@@ -66037,7 +66044,7 @@
         <v>5183</v>
       </c>
     </row>
-    <row r="929" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A929" s="32" t="s">
         <v>3632</v>
       </c>
@@ -66051,7 +66058,7 @@
         <v>5185</v>
       </c>
     </row>
-    <row r="930" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A930" s="32" t="s">
         <v>3624</v>
       </c>
@@ -66065,7 +66072,7 @@
         <v>5187</v>
       </c>
     </row>
-    <row r="931" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A931" s="32" t="s">
         <v>3626</v>
       </c>
@@ -66079,7 +66086,7 @@
         <v>5189</v>
       </c>
     </row>
-    <row r="932" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A932" s="32" t="s">
         <v>3636</v>
       </c>
@@ -66093,7 +66100,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="933" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A933" s="32" t="s">
         <v>3638</v>
       </c>
@@ -66107,7 +66114,7 @@
         <v>5193</v>
       </c>
     </row>
-    <row r="934" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A934" s="32" t="s">
         <v>5194</v>
       </c>
@@ -66121,7 +66128,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="935" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A935" s="32" t="s">
         <v>5198</v>
       </c>
@@ -66133,7 +66140,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="936" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A936" s="32" t="s">
         <v>5200</v>
       </c>
@@ -66145,7 +66152,7 @@
         <v>5201</v>
       </c>
     </row>
-    <row r="937" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A937" s="32" t="s">
         <v>5202</v>
       </c>
@@ -66157,7 +66164,7 @@
         <v>5203</v>
       </c>
     </row>
-    <row r="938" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A938" s="32" t="s">
         <v>5204</v>
       </c>
@@ -66169,7 +66176,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="939" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A939" s="32" t="s">
         <v>5207</v>
       </c>
@@ -66181,7 +66188,7 @@
         <v>5209</v>
       </c>
     </row>
-    <row r="940" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A940" s="32" t="s">
         <v>5210</v>
       </c>
@@ -66193,7 +66200,7 @@
         <v>5211</v>
       </c>
     </row>
-    <row r="941" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A941" s="32" t="s">
         <v>5212</v>
       </c>
@@ -66205,7 +66212,7 @@
         <v>5213</v>
       </c>
     </row>
-    <row r="942" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A942" s="32" t="s">
         <v>5214</v>
       </c>
@@ -66231,8 +66238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9B5EB2-EC05-44CA-88DD-ED44E8058C62}">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D332" sqref="D332"/>
+    <sheetView tabSelected="1" topLeftCell="A471" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A477" sqref="A477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/dataforfinalproject/RawDataFiles/Codebooks/Codebook_allyears.xlsx
+++ b/dataforfinalproject/RawDataFiles/Codebooks/Codebook_allyears.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMU DS Bootcamp\Projects\Project3-ML_ResPoweConsumption\Project3final\dataforfinalproject\RawDataFiles\Codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F5220B-03A2-450D-A320-43CF8A528D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DB71A6-574F-4CE9-9D93-46CA070BA9F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="4" xr2:uid="{D5B27A2C-9AC0-4372-9500-4C3681F36C9F}"/>
   </bookViews>
@@ -20228,7 +20228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20394,6 +20394,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -20766,7 +20780,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -20809,6 +20823,14 @@
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -21031,7 +21053,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="20" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="23" builtinId="38" customBuiltin="1"/>
@@ -21044,11 +21066,17 @@
     <cellStyle name="40% - Accent4" xfId="27" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="30" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="33" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="44" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - Accent2" xfId="45" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Accent3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - Accent4" xfId="47" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Accent4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60% - Accent5" xfId="48" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Accent1" xfId="16" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="19" builtinId="33" customBuiltin="1"/>
@@ -21067,10 +21095,12 @@
     <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="7" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="10" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="43" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="13" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="8" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="42" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Title 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Total" xfId="15" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="12" builtinId="11" customBuiltin="1"/>
@@ -53230,8 +53260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8288F514-4EDA-43BF-B0BC-9F0DDD252265}">
   <dimension ref="A1:F942"/>
   <sheetViews>
-    <sheetView topLeftCell="A603" workbookViewId="0">
-      <selection activeCell="F604" sqref="F604"/>
+    <sheetView topLeftCell="A660" workbookViewId="0">
+      <selection activeCell="A665" sqref="A665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64396,7 +64426,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="799" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A799" s="31" t="s">
         <v>4960</v>
       </c>
@@ -64438,7 +64468,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A802" s="31" t="s">
         <v>4965</v>
       </c>
@@ -64452,7 +64482,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A803" s="31" t="s">
         <v>4967</v>
       </c>
@@ -64466,7 +64496,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A804" s="31" t="s">
         <v>4969</v>
       </c>
@@ -64480,7 +64510,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A805" s="31" t="s">
         <v>4971</v>
       </c>
@@ -64494,7 +64524,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A806" s="31" t="s">
         <v>4973</v>
       </c>
@@ -64508,7 +64538,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A807" s="31" t="s">
         <v>4975</v>
       </c>
@@ -64522,7 +64552,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A808" s="31" t="s">
         <v>4977</v>
       </c>
@@ -64536,7 +64566,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A809" s="31" t="s">
         <v>4979</v>
       </c>
@@ -64550,7 +64580,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A810" s="31" t="s">
         <v>4981</v>
       </c>
@@ -64564,7 +64594,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A811" s="31" t="s">
         <v>4983</v>
       </c>
@@ -64578,7 +64608,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A812" s="31" t="s">
         <v>4985</v>
       </c>
@@ -64592,7 +64622,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A813" s="31" t="s">
         <v>4987</v>
       </c>
@@ -64606,7 +64636,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A814" s="31" t="s">
         <v>4989</v>
       </c>
@@ -64854,7 +64884,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A832" s="31" t="s">
         <v>3497</v>
       </c>
@@ -64866,7 +64896,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A833" s="31" t="s">
         <v>3498</v>
       </c>
@@ -64878,7 +64908,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A834" s="31" t="s">
         <v>3507</v>
       </c>
@@ -64890,7 +64920,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A835" s="31" t="s">
         <v>3509</v>
       </c>
@@ -66238,8 +66268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9B5EB2-EC05-44CA-88DD-ED44E8058C62}">
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A477" sqref="A477"/>
+    <sheetView tabSelected="1" topLeftCell="A754" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A756" sqref="A756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
